--- a/biology/Mycologie/Pézize/Pézize.xlsx
+++ b/biology/Mycologie/Pézize/Pézize.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9zize</t>
+          <t>Pézize</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pézize est le nom francisé de l'ancien genre latin Peziza au sens élargi de champignons ascomycètes dont l'appareil reproducteur aérien (ascome) a la forme simple et caractéristique d'une coupe sans pied. La couleur est souvent brune ou orangée, parfois violacée, rouge vif, etc. L'intérieur de la coupe porte les asques dressées et serrées constituant l'hyménium.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9zize</t>
+          <t>Pézize</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Étymologie et Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon Locquin, PEZIZES dont le nom vient de PILTZIN en Aztèque, en -1.000, qui a le sens de « champignon femelle » - c'est-à-dire en coupe - par opposition aux « champignons mâles » érigés sur un pied.
-En -309, Peziza, du grec ancien Pezis, ou Pezos est un « champignon à pied réduit », « bas sur pattes, ou qui vient à même la terre »[1],[2] .
+En -309, Peziza, du grec ancien Pezis, ou Pezos est un « champignon à pied réduit », « bas sur pattes, ou qui vient à même la terre », .
 Le botaniste et philosophe Théophraste, au IIIe siècle av. J.-C. classe les champignons en quatre grands types 
 Les champignons poussant sous terre appelés « hydnom » (comme les truffes)
 Les champignons de forme sphérique, les vesses-de loup et sclerodermes
-Les champignons qu'il dénomme « mykès »[3] : de ce mot dérive le mot Mycologie, Mycena, qui désigne tous les champignons à chapeau et à pied.
+Les champignons qu'il dénomme « mykès » : de ce mot dérive le mot Mycologie, Mycena, qui désigne tous les champignons à chapeau et à pied.
 Les champignons en forme de coupe, comme les clitocybes, les pézizes.</t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9zize</t>
+          <t>Pézize</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les pézizes sensu lato appartiennent à l'ordre des Pezizales. Elles forment notamment la famille des Pezizaceae ,mais d'autre genres et espèces de forme comparable dans des familles voisines sont également appelées pézizes.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9zize</t>
+          <t>Pézize</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques pézizes sont comestibles quoique peu estimées. À titre de curiosité, on peut consommer la pézize orangée (Aleuria aurantia ou Peziza aurantia selon les classifications) crue, saupoudrée de sucre et arrosée de kirsch. On peut aussi s'en servir pour décorer des salades.
 </t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P%C3%A9zize</t>
+          <t>Pézize</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,190 +627,192 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés[4] en français. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique des noms vulgaires ou des noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Pézize  à marge crénelée – Orbilia crenatomarginata[5]
-Pézize à deux pointes – Trichophaeopsis bicuspis[5]
-Pézize à fourrure – Hoffmannoscypha pellita[5]
-Pézize à grandes soies – Lasiobolus macrotrichus[5]
-Pézize à grandes spores – Tatraea macrospora[5]
-Pézize à long pied – Lanzia longipes[5]
-Pézize à mille points – Hyalopeziza millepunctata[5]
-Pézize à ornements variables – Trichophaea variornata[5]
-Pézize à paroi rugueuse – Lamprospora trachycarpa[5]
-Pézize à petites spores – Cheilymenia parvispora[5]
-Pézize à poils blancs – Leucoscypha leucotricha[5]
-Pézize à points jaunes – Orbilia xanthostigma[5]
-Pézize à quatre spores – Trichophaeopsis tetraspora[5]
-Pézize à spores cubiques – Hydnotrya cubispora[5]
-Pézize à spores épineuses – Peziza echinospora[5]
-Pézize à spores fusiformes – Byssonectria fusispora[5]
-Pézize à suc jaunissant – Peziza succosa[5]
-Pézize à tunique brune – Jafnea fusicarpa[5]
-Pézize abondante – Trichophaea abundans[5]
-Pézize alpine – Microstoma protractum[5]
-Pézize arénophile – Genea arenaria[5]
-Pézize arrondie – Pulvinula convexella[5]
-Pézize azurée – Peziza azureoides[5]
-Pézize baie – Peziza badia[5]
-Pézize bicolore – Lachnum bicolor[5]
-Pézize blanc noir - Peziza leucomelas[6]
-Pézize blanc pur – Lachnum virgineum[5]
-Pézize brun noirâtre – Peziza brunneoatra[5]
-Pézize brun vineux – Peziza brunneovinosa[5]
-Pézize brune – Sphaerosporella brunnea[5]
-Pézize bulgarioïde – Rutstroemia bulgarioides[5]
-Pézize carnée – Iodophanus carneus[5]
-Pézize caudée – Hymenoscyphus caudatus[5]
-Pézize celtique – Pachyella celtica[5]
-Pézize cérine – Neodasyscypha cerina[5]
-Pézize chair de mouton – Rhodoscypha ovilla[5]
-Pézize chair-de-porc – Pseudombrophila porcina[5]
-Pézize charbonnière – Pulvinula carbonaria[5]
-Pézize charnue – Ascocoryne sarcoides[5]
-Pézize ciliifère – Pezoloma ciliifera[5]
-Pézize citrine – Bisporella citrina[5]
-Pézize clandestine – Brunnipila clandestina[5]
-Pézize coccinée - Sarcoscypha coccinea[6]
-Pézize corticale – Lasiobelonium corticale[5]
-Pézize couronnée - Sarcosphaera coronaria[7], Crocicreas coronatum[5] ou Sarcosphera crassa[réf. souhaitée]
-Pézize cratériforme – Urnula craterium[5]
-Pézize cupulée – Ascocoryne cylichnium[5]
-Pézize cyathoïde – Cyathicula cyathoidea[5]
-Pézize d'Agassiz – Lachnellula agassizii[5]
-Pézize d'Aurélie – Arachnopeziza aurelia[5]
-Pézize d'Autriche – Sarcoscypha austriaca[5]
-Pézize de Blumenau – Scutellinia blumenaviensis[5]
-Pézize de Bolton – Peziza boltonii[5]
-Pézize de Chater – Melastiza chateri[5]
-Pézize de De Candolle – Ciborinia candolleana[5]
-Pézize de Dudley – Sarcoscypha dudleyi[5]
-Pézize de Fuckel – Hyaloscypha fuckelii[5]
-Pézize de l’Eucalyptus – Orbilia eucalypti[5]
-Pézize de l'aurore – Coprotus aurora[5]
-Pézize de l'Ouest – Lachnellula occidentalis[5]
-Pézize de Micheli – Peziza michelii[5]
-Pézize de Nannfeldt – Donadinia nigrella[5]
-Pézize de Pennsylvanie – Scutellinia pennsylvanica[5]
-Pézize de Peters – Peziza petersii[5]
-Pézize de Saccardo – Peziza saccardoana[5]
-Pézize de Walters – Peziza waltersii[5]
-Pézize de Winter – Lachnum winteri[5]
-Pézize décharnée – Lachnellula arida[5]
-Pézize délicate – Orbilia delicatula[5]
-Pézize demi-sphérique – Trichophaea hemisphaerioides[5]
-Pézize des amentifères – Ciboria amentacea[5]
-Pézize des brûlis – Geopyxis carbonaria[5]
-Pézize des châtaigniers - Peziza echinophila[6]
-Pézize des domiciles – Peziza domiciliana[5]
-Pézize des étangs – Peziza limnaea[5]
-Pézize des excréments – Pseudombrophila merdaria[5]
-Pézize des feuilles – Phaeohelotium epiphyllum[5]
-Pézize des frullanies – Pithyella frullaniae[5]
-Pézize des légumineuses – Acervus epispartius[5]
-Pézize des montagnes – Hymenoscyphus monticola[5]
-Pézize des neiges – Peziza nivalis[5]
-Pézize des noisetiers – Ciboria coryli[5]
-Pézize des places à feu – Plicaria carbonaria[5]
-Pézize des plançons – Smardaea planchonis[5]
-Pézize des polypores – Phaeocalicium polyporaeum[5]
-Pézize des sables – Geopora arenicola[5]
-Pézize des tourbières – Ascocoryne turficola[5]
-Pézize des Vosges – Pseudoplectania vogesiaca[5]
-Pézize diadémée – Sarcosphaera coronaria[5]
-Pézize domestique – Pyronema domesticum[5]
-Pézize dorée – Arachnopeziza aurata[5]
-Pézize du hêtre – Ascotremella faginea[5]
-Pézize du Rhin – Sowerbyella rhenana[5]
-Pézize écailleuse – Peziza ostracoderma[5]
-Pézize écarlate – Sarcoscypha coccinea[7]
-Pézize écorce d'orange – Caloscypha fulgens[5]
-Pézize en bouclier – Scutellinia scutellata[7]
-Pézize en coupe – Tarzetta cupularis[5] ou Peziza acetabulum [6]
-Pézize en creuset – Tarzetta catinus[5]
-Pézize en écuelle – Hymenoscyphus scutula[5]
-Pézize en touffe – Nannfeldtiella aggregata[5]
-Pézize étalée – Hymenoscyphus repandus[5]
-Pézize excipulaire – Octospora excipulata[5]
-Pézize fasciculée – Encoelia fascicularis[5]
-Pézize fauvâtre – Ionomidotis fulvotingens[5]
-Pézize floconneuse – Microstoma floccosum[5]
-Pézize fructicole – Hymenoscyphus fructigenus[5]
-Pézize furfuracée – Encoelia furfuracea[5]
-Pézize globuleuse – Sarcosoma globosum[5]
-Pézize grégaire – Trichophaea gregaria[5]
-Pézize gris cendré – Trichopeziza leucophaea[5]
-Pézize gris rosâtre – Peziza griseorosea[5]
-Pézize hémisphérique – Humaria hemisphaerica[5]
-Pézize hérisson – Scutellinia erinaceus[5]
-Pézize hilée – Pyronema omphalodes[5]
-Pézize hispide – Genea hispidula[5]
-Pézize irrégulière – Ionomidotis irregularis[5]
-Pézize jaune et noire – Podophacidium xanthomelum[5]
-Pézize jaune-vert – Chlorosplenium chlora[5]
-Pézize laiteuse – Calycina lactea[5]
-Pézize ligneuse – Rhizodiscina lignyota[5]
-Pézize livide foncé – Mollisia lividofusca[5]
-Pézize mélanique – Anthracobia melaloma[5]
-Pézize mouton – Lasiosphaeria ovina[5]
-Pézize muqueuse – Holwaya mucida[5]
-Pézize noir vineux – Peziza atrovinosa[5]
-Pézize noirâtre – Pseudoplectania nigrella[5]
-Pézize noircie – Bulgaria inquinans[5]
-Pézize noire – Patellaria atrata[5]
-Pézize noire et blanche – Mollisia melaleuca[5]
-Pézize obscure – Bulgariella pulla[5]
-Pézize occidentale – Sarcoscypha occidentalis[5]
-Pézize ochracée – Coprotus ochraceus[5]
-Pézize olivacée – Catinella olivacea[5]
-Pézize olivâtre – Peziza phyllogena[5]
-Pézize olive cendré – Mollisia olivaceocinerea[5]
-Pézize ombiliquée – Phaeohelotium umbilicatum[5]
-Pézize ombrée – Scutellinia umbrorum[5]
-Pézize orangée – Aleuria aurantia[7]
-Pézize oreille d'âne - Peziza onotica[6]
-Pézize oreille de lièvre - Peziza leporina[6]
+Pézize  à marge crénelée – Orbilia crenatomarginata
+Pézize à deux pointes – Trichophaeopsis bicuspis
+Pézize à fourrure – Hoffmannoscypha pellita
+Pézize à grandes soies – Lasiobolus macrotrichus
+Pézize à grandes spores – Tatraea macrospora
+Pézize à long pied – Lanzia longipes
+Pézize à mille points – Hyalopeziza millepunctata
+Pézize à ornements variables – Trichophaea variornata
+Pézize à paroi rugueuse – Lamprospora trachycarpa
+Pézize à petites spores – Cheilymenia parvispora
+Pézize à poils blancs – Leucoscypha leucotricha
+Pézize à points jaunes – Orbilia xanthostigma
+Pézize à quatre spores – Trichophaeopsis tetraspora
+Pézize à spores cubiques – Hydnotrya cubispora
+Pézize à spores épineuses – Peziza echinospora
+Pézize à spores fusiformes – Byssonectria fusispora
+Pézize à suc jaunissant – Peziza succosa
+Pézize à tunique brune – Jafnea fusicarpa
+Pézize abondante – Trichophaea abundans
+Pézize alpine – Microstoma protractum
+Pézize arénophile – Genea arenaria
+Pézize arrondie – Pulvinula convexella
+Pézize azurée – Peziza azureoides
+Pézize baie – Peziza badia
+Pézize bicolore – Lachnum bicolor
+Pézize blanc noir - Peziza leucomelas
+Pézize blanc pur – Lachnum virgineum
+Pézize brun noirâtre – Peziza brunneoatra
+Pézize brun vineux – Peziza brunneovinosa
+Pézize brune – Sphaerosporella brunnea
+Pézize bulgarioïde – Rutstroemia bulgarioides
+Pézize carnée – Iodophanus carneus
+Pézize caudée – Hymenoscyphus caudatus
+Pézize celtique – Pachyella celtica
+Pézize cérine – Neodasyscypha cerina
+Pézize chair de mouton – Rhodoscypha ovilla
+Pézize chair-de-porc – Pseudombrophila porcina
+Pézize charbonnière – Pulvinula carbonaria
+Pézize charnue – Ascocoryne sarcoides
+Pézize ciliifère – Pezoloma ciliifera
+Pézize citrine – Bisporella citrina
+Pézize clandestine – Brunnipila clandestina
+Pézize coccinée - Sarcoscypha coccinea
+Pézize corticale – Lasiobelonium corticale
+Pézize couronnée - Sarcosphaera coronaria, Crocicreas coronatum ou Sarcosphera crassa[réf. souhaitée]
+Pézize cratériforme – Urnula craterium
+Pézize cupulée – Ascocoryne cylichnium
+Pézize cyathoïde – Cyathicula cyathoidea
+Pézize d'Agassiz – Lachnellula agassizii
+Pézize d'Aurélie – Arachnopeziza aurelia
+Pézize d'Autriche – Sarcoscypha austriaca
+Pézize de Blumenau – Scutellinia blumenaviensis
+Pézize de Bolton – Peziza boltonii
+Pézize de Chater – Melastiza chateri
+Pézize de De Candolle – Ciborinia candolleana
+Pézize de Dudley – Sarcoscypha dudleyi
+Pézize de Fuckel – Hyaloscypha fuckelii
+Pézize de l’Eucalyptus – Orbilia eucalypti
+Pézize de l'aurore – Coprotus aurora
+Pézize de l'Ouest – Lachnellula occidentalis
+Pézize de Micheli – Peziza michelii
+Pézize de Nannfeldt – Donadinia nigrella
+Pézize de Pennsylvanie – Scutellinia pennsylvanica
+Pézize de Peters – Peziza petersii
+Pézize de Saccardo – Peziza saccardoana
+Pézize de Walters – Peziza waltersii
+Pézize de Winter – Lachnum winteri
+Pézize décharnée – Lachnellula arida
+Pézize délicate – Orbilia delicatula
+Pézize demi-sphérique – Trichophaea hemisphaerioides
+Pézize des amentifères – Ciboria amentacea
+Pézize des brûlis – Geopyxis carbonaria
+Pézize des châtaigniers - Peziza echinophila
+Pézize des domiciles – Peziza domiciliana
+Pézize des étangs – Peziza limnaea
+Pézize des excréments – Pseudombrophila merdaria
+Pézize des feuilles – Phaeohelotium epiphyllum
+Pézize des frullanies – Pithyella frullaniae
+Pézize des légumineuses – Acervus epispartius
+Pézize des montagnes – Hymenoscyphus monticola
+Pézize des neiges – Peziza nivalis
+Pézize des noisetiers – Ciboria coryli
+Pézize des places à feu – Plicaria carbonaria
+Pézize des plançons – Smardaea planchonis
+Pézize des polypores – Phaeocalicium polyporaeum
+Pézize des sables – Geopora arenicola
+Pézize des tourbières – Ascocoryne turficola
+Pézize des Vosges – Pseudoplectania vogesiaca
+Pézize diadémée – Sarcosphaera coronaria
+Pézize domestique – Pyronema domesticum
+Pézize dorée – Arachnopeziza aurata
+Pézize du hêtre – Ascotremella faginea
+Pézize du Rhin – Sowerbyella rhenana
+Pézize écailleuse – Peziza ostracoderma
+Pézize écarlate – Sarcoscypha coccinea
+Pézize écorce d'orange – Caloscypha fulgens
+Pézize en bouclier – Scutellinia scutellata
+Pézize en coupe – Tarzetta cupularis ou Peziza acetabulum 
+Pézize en creuset – Tarzetta catinus
+Pézize en écuelle – Hymenoscyphus scutula
+Pézize en touffe – Nannfeldtiella aggregata
+Pézize étalée – Hymenoscyphus repandus
+Pézize excipulaire – Octospora excipulata
+Pézize fasciculée – Encoelia fascicularis
+Pézize fauvâtre – Ionomidotis fulvotingens
+Pézize floconneuse – Microstoma floccosum
+Pézize fructicole – Hymenoscyphus fructigenus
+Pézize furfuracée – Encoelia furfuracea
+Pézize globuleuse – Sarcosoma globosum
+Pézize grégaire – Trichophaea gregaria
+Pézize gris cendré – Trichopeziza leucophaea
+Pézize gris rosâtre – Peziza griseorosea
+Pézize hémisphérique – Humaria hemisphaerica
+Pézize hérisson – Scutellinia erinaceus
+Pézize hilée – Pyronema omphalodes
+Pézize hispide – Genea hispidula
+Pézize irrégulière – Ionomidotis irregularis
+Pézize jaune et noire – Podophacidium xanthomelum
+Pézize jaune-vert – Chlorosplenium chlora
+Pézize laiteuse – Calycina lactea
+Pézize ligneuse – Rhizodiscina lignyota
+Pézize livide foncé – Mollisia lividofusca
+Pézize mélanique – Anthracobia melaloma
+Pézize mouton – Lasiosphaeria ovina
+Pézize muqueuse – Holwaya mucida
+Pézize noir vineux – Peziza atrovinosa
+Pézize noirâtre – Pseudoplectania nigrella
+Pézize noircie – Bulgaria inquinans
+Pézize noire – Patellaria atrata
+Pézize noire et blanche – Mollisia melaleuca
+Pézize obscure – Bulgariella pulla
+Pézize occidentale – Sarcoscypha occidentalis
+Pézize ochracée – Coprotus ochraceus
+Pézize olivacée – Catinella olivacea
+Pézize olivâtre – Peziza phyllogena
+Pézize olive cendré – Mollisia olivaceocinerea
+Pézize ombiliquée – Phaeohelotium umbilicatum
+Pézize ombrée – Scutellinia umbrorum
+Pézize orangée – Aleuria aurantia
+Pézize oreille d'âne - Peziza onotica
+Pézize oreille de lièvre - Peziza leporina
 Pézize pâle - Pustularia catinus[réf. souhaitée]
-Pézize petite coupe – Hymenoscyphus calyculus[5]
-Pézize petite-Aurélie – Hyaloscypha aureliella[5]
-Pézize pluriseptée – Belonioscyphella pluriseptata[5]
-Pézize prasinule – Claussenomyces prasinulus[5]
-Pézize précoce – Tricharina praecox[5]
-Pézize printanière – Hymenoscyphus vernus[5]
-Pézize pulvérulente – Proliferodiscus pulveraceus[5]
-Pézize pure – Neobulgaria pura[5]
-Pézize radicante – Sowerbyella radiculata[5]
-Pézize rousse – Galiella rufa[5]
-Pézize rugueuse – Plicaria trachycarpa[5]
-Pézize rutilante – Neottiella rutilans[5]
-Pézize sanguine – Patinellaria sanguinea[5]
-Pézize scabreuse – Plicariella scabrosa[5]
-Pézize scutiforme – Pachyella clypeata[5]
-Pézize semi-grillée – Jafnea semitosta[5]
-Pézize sétuleuse – Scutellinia setosa[5]
-Pézize sillonnée – Sclerotinia sulcata[5]
-Pézize sombre – Mollisia fusca[5]
-Pézize squamuleuse – Lasiobelonium variegatum[5]
-Pézize sylvestre – Peziza arvernensis[5]
-Pézize tenace – Peziza tenacella[5]
-Pézize terrestre – Byssonectria terrestris[5]
-Pézize terreuse – Octospora humosa[5]
-Pézize tortueuse – Chlorencoelia torta[5]
-Pézize tubéreuse - Peziza tuberosa[6]
-Pézize turquoise - Chlorociboria aeruginosa[6]
-Pézize variable – Peziza varia[5]
-Pézize veinée – Disciotis venosa[7]
-Pézize ventouse – Mollisia ventosa[5]
-Pézize verdissante – Chlorociboria aeruginascens[5]
-Pézize versiforme – Chlorencoelia versiformis[5]
-Pézize vert-de-gris – Chlorociboria aeruginosa[5]
-Pézize vésiculeuse – Peziza vesiculosa[7]
-Pézize violacée – Peziza praetervisa[5]
-Pézize violette – Peziza violacea[5]
-Pézize vivide – Neottiella vivida[5]
-Pézize vulgaire – Pithya vulgaris[5]
+Pézize petite coupe – Hymenoscyphus calyculus
+Pézize petite-Aurélie – Hyaloscypha aureliella
+Pézize pluriseptée – Belonioscyphella pluriseptata
+Pézize prasinule – Claussenomyces prasinulus
+Pézize précoce – Tricharina praecox
+Pézize printanière – Hymenoscyphus vernus
+Pézize pulvérulente – Proliferodiscus pulveraceus
+Pézize pure – Neobulgaria pura
+Pézize radicante – Sowerbyella radiculata
+Pézize rousse – Galiella rufa
+Pézize rugueuse – Plicaria trachycarpa
+Pézize rutilante – Neottiella rutilans
+Pézize sanguine – Patinellaria sanguinea
+Pézize scabreuse – Plicariella scabrosa
+Pézize scutiforme – Pachyella clypeata
+Pézize semi-grillée – Jafnea semitosta
+Pézize sétuleuse – Scutellinia setosa
+Pézize sillonnée – Sclerotinia sulcata
+Pézize sombre – Mollisia fusca
+Pézize squamuleuse – Lasiobelonium variegatum
+Pézize sylvestre – Peziza arvernensis
+Pézize tenace – Peziza tenacella
+Pézize terrestre – Byssonectria terrestris
+Pézize terreuse – Octospora humosa
+Pézize tortueuse – Chlorencoelia torta
+Pézize tubéreuse - Peziza tuberosa
+Pézize turquoise - Chlorociboria aeruginosa
+Pézize variable – Peziza varia
+Pézize veinée – Disciotis venosa
+Pézize ventouse – Mollisia ventosa
+Pézize verdissante – Chlorociboria aeruginascens
+Pézize versiforme – Chlorencoelia versiformis
+Pézize vert-de-gris – Chlorociboria aeruginosa
+Pézize vésiculeuse – Peziza vesiculosa
+Pézize violacée – Peziza praetervisa
+Pézize violette – Peziza violacea
+Pézize vivide – Neottiella vivida
+Pézize vulgaire – Pithya vulgaris
 </t>
         </is>
       </c>
